--- a/biology/Botanique/Cognée/Cognée.xlsx
+++ b/biology/Botanique/Cognée/Cognée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cogn%C3%A9e</t>
+          <t>Cognée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cognée est un outil de la famille des haches. Principalement utilisé pour abattre les arbres et pour fendre les bûches, cet outil, qui s'utilise à deux mains, a une forme très fine avec un tranchant peu large. Une cognée est dotée tout comme le merlin et la masse d'un long manche. La cognée était autrefois utilisée pour réaliser l'équarrissage des bois, avec d'autres outils comme la doloire de charpentier ou l'herminette.
 Il existe des variantes plus petites de la cognée surnommées demi-cognées en raison de la longueur réduite de leur manche (et de leur fer moins lourd). À l'inverse d'un merlin qui ressemble plutôt à un coin porté au bout d'un manche et qui ne sert que pour fendre le bois, mais n'est pas affuté, une cognée est faite pour couper ou abattre les arbres. Son fer est donc affuté, et effilé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cogn%C3%A9e</t>
+          <t>Cognée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cognée passe pour être une invention de l'Athénien Dédale[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cognée passe pour être une invention de l'Athénien Dédale
 On distinguait les « charpentiers de la grande cognée à lame droite », des « charpentiers de la petite cognée », ou menuisiers.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cogn%C3%A9e</t>
+          <t>Cognée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, la Cognée était le nom attribué au 10e jour du mois de pluviôse[2].</t>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, la Cognée était le nom attribué au 10e jour du mois de pluviôse.</t>
         </is>
       </c>
     </row>
